--- a/Data/Original_Data/dictionary.xlsx
+++ b/Data/Original_Data/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuire\PycharmProjects\IronDeficiency\Data\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A8316-76F4-4707-A82B-43C1CF483BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE7CBD-CE05-4062-9962-01437BC08061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{4F33619E-D399-492A-B824-E8FE5FFD4596}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="421">
   <si>
     <t>Variable</t>
   </si>
@@ -1406,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1433,9 +1433,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4BD649-E849-48D4-ADE5-6914AAE517A1}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1838,7 +1835,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1956,6 +1953,9 @@
       <c r="C17" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="D17" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
@@ -2642,6 +2642,9 @@
       </c>
       <c r="C76" s="5">
         <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
